--- a/spliced/walkingToRunning/2023-03-26_18-54-49/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-26_18-54-49/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>-27.19419860839844</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.443913996219635</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.598052978515625</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.372174263000488</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5.017239570617676</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-37.66963577270508</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8286991119384766</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-11.97968292236328</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-29.96435546875</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-18.5664291381836</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.253250598907471</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.138059854507446</v>
+      </c>
+      <c r="C25" t="n">
+        <v>19.65131759643555</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.3477138876914978</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-27.24154853820801</v>
+      </c>
+      <c r="C26" t="n">
+        <v>47.39388656616211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-66.68949127197266</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-16.29855728149414</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-26.75592613220215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-5.153336048126221</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.702579855918884</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10.3774242401123</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-7.020784378051758</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-33.00114822387695</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7.655538558959961</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6.488995552062988</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-21.21427917480469</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29.90091133117676</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.7014479041099548</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.056992530822754</v>
+      </c>
+      <c r="C31" t="n">
+        <v>16.41212844848633</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
